--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\置き場管理\案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD0427-01F1-4343-80B9-991B990C093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8B743-671B-4174-827A-A439A843468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4845" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,17 +376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -687,7 +683,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -706,7 +702,6 @@
       <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -808,7 +803,6 @@
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
@@ -819,10 +813,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -891,7 +885,6 @@
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
@@ -902,10 +895,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -968,10 +961,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3"/>
@@ -979,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3"/>
@@ -988,14 +981,14 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3"/>
@@ -1014,7 +1007,6 @@
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
@@ -1025,10 +1017,10 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1096,9 +1088,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7"/>
-    </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>0</v>
@@ -1106,7 +1095,6 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
@@ -1117,10 +1105,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1143,10 +1131,10 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="3"/>
@@ -1203,10 +1191,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="3"/>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8B743-671B-4174-827A-A439A843468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDEA7A-22E4-4B07-A11A-8F646C984CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pn_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番id</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -376,13 +391,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -401,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}" name="テーブル1" displayName="テーブル1" ref="A3:H7" totalsRowShown="0">
-  <autoFilter ref="A3:H7" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}" name="テーブル1" displayName="テーブル1" ref="A3:H8" totalsRowShown="0">
+  <autoFilter ref="A3:H8" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{81F3108F-FA97-4157-985A-5F6C7A3B70AF}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{D0CE9261-BDF4-4A1D-A013-83031B334A44}" name="論理名"/>
@@ -680,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -711,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -739,16 +756,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -759,201 +776,200 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
@@ -962,120 +978,116 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3" t="b">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -1088,96 +1100,94 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1192,17 +1202,43 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDEA7A-22E4-4B07-A11A-8F646C984CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76338FF8-DE48-4C5A-A69D-C785D2E8B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4845" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -290,6 +290,10 @@
     <rPh sb="0" eb="2">
       <t>ヒンバン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,10 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1107,7 +1114,9 @@
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D32" s="7" t="s">
         <v>21</v>
       </c>
@@ -1170,9 +1179,13 @@
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
@@ -1207,7 +1220,9 @@
       <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -1243,8 +1258,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76338FF8-DE48-4C5A-A69D-C785D2E8B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E86D3-1710-454A-914B-2E7B8CCFC0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4845" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -294,6 +294,53 @@
   </si>
   <si>
     <t>DateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shelf_sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚順序</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードの有無で、どの品番がどのセルIDにいるのかを判定し、品番は重複不可として設計する</t>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジュウフクフカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,8 +449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -704,10 +751,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -919,6 +966,24 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <v>999</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>0</v>
@@ -1041,219 +1106,243 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F41" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="3" t="b">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H45" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E86D3-1710-454A-914B-2E7B8CCFC0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F98FEB-91DD-4C08-9294-77B4F46BE3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shelf_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>棚ID</t>
     <rPh sb="0" eb="1">
       <t>タナ</t>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cell_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shelf_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -322,7 +314,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レコードの有無で、どの品番がどのセルIDにいるのかを判定し、品番は重複不可として設計する</t>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゾーン名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zone_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードの有無で、どの品番がどのセルIDにいるのかを判定し、セルID+品番IDは重複不可として設計する</t>
     <rPh sb="5" eb="7">
       <t>ウム</t>
     </rPh>
@@ -332,13 +403,13 @@
     <rPh sb="26" eb="28">
       <t>ハンテイ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="35" eb="37">
       <t>ヒンバン</t>
     </rPh>
-    <rPh sb="33" eb="37">
+    <rPh sb="40" eb="44">
       <t>ジュウフクフカ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="47" eb="49">
       <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -386,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -438,11 +509,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -451,11 +531,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -469,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}" name="テーブル1" displayName="テーブル1" ref="A3:H8" totalsRowShown="0">
-  <autoFilter ref="A3:H8" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
+  <autoFilter ref="A23:H28" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{81F3108F-FA97-4157-985A-5F6C7A3B70AF}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{D0CE9261-BDF4-4A1D-A013-83031B334A44}" name="論理名"/>
@@ -480,6 +595,23 @@
     <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL"/>
     <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default"/>
     <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A3:H5" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FF83F9C0-AB2B-4A24-94C7-2E75099C7FCC}" name="物理名"/>
+    <tableColumn id="2" xr3:uid="{BC650733-FB8A-40B8-A476-100495E26E68}" name="論理名"/>
+    <tableColumn id="3" xr3:uid="{F6D513A5-2539-43F1-8A60-DB3915EC696A}" name="主キー"/>
+    <tableColumn id="4" xr3:uid="{55412B97-0317-4D65-8B36-D9313A569658}" name="型"/>
+    <tableColumn id="5" xr3:uid="{36E458A5-B237-4211-B6BC-E892E9402474}" name="UNIQUE"/>
+    <tableColumn id="6" xr3:uid="{E9893954-4375-43BA-B797-FA70402C092F}" name="NOTNULL"/>
+    <tableColumn id="7" xr3:uid="{48287203-13D1-43FD-84CA-324754C002AB}" name="default"/>
+    <tableColumn id="8" xr3:uid="{C16E2147-E415-4A57-BDE0-310C7DCF316A}" name="FK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -751,197 +883,177 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="b">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
@@ -949,407 +1061,540 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3">
         <v>999</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="A34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="3" t="b">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F98FEB-91DD-4C08-9294-77B4F46BE3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9772F662-A48F-48C9-9CD1-23D997E9FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -393,24 +393,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レコードの有無で、どの品番がどのセルIDにいるのかを判定し、セルID+品番IDは重複不可として設計する</t>
+    <t>レコードの有無で、どの品番がどのセルIDにおけるのかを判定し、セルID+品番IDは重複不可とする</t>
     <rPh sb="5" eb="7">
       <t>ウム</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヒンバン</t>
     </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ジュウフクフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cell_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pn_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>束数</t>
+    <rPh sb="0" eb="1">
+      <t>タバ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bundle_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルストック状態</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cell_stock_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードの有無で、どのセルに何の品番が何束あるのかを管理</t>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナンタバ</t>
+    </rPh>
     <rPh sb="26" eb="28">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒンバン</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ジュウフクフカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッケイ</t>
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,23 +611,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -563,13 +719,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -589,29 +738,29 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{81F3108F-FA97-4157-985A-5F6C7A3B70AF}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{D0CE9261-BDF4-4A1D-A013-83031B334A44}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{BDF92E14-C0C1-48CD-9DD3-4496DCB60747}" name="主キー"/>
-    <tableColumn id="4" xr3:uid="{D3DEED8E-F2E9-41E3-83FA-B08E7B089F45}" name="型"/>
-    <tableColumn id="5" xr3:uid="{99B2EDA6-EDB2-4EC0-9614-3F0DAA547C2E}" name="UNIQUE"/>
-    <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL"/>
-    <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default"/>
-    <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK"/>
+    <tableColumn id="3" xr3:uid="{BDF92E14-C0C1-48CD-9DD3-4496DCB60747}" name="主キー" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D3DEED8E-F2E9-41E3-83FA-B08E7B089F45}" name="型" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{99B2EDA6-EDB2-4EC0-9614-3F0DAA547C2E}" name="UNIQUE" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A3:H5" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FF83F9C0-AB2B-4A24-94C7-2E75099C7FCC}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{BC650733-FB8A-40B8-A476-100495E26E68}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{F6D513A5-2539-43F1-8A60-DB3915EC696A}" name="主キー"/>
-    <tableColumn id="4" xr3:uid="{55412B97-0317-4D65-8B36-D9313A569658}" name="型"/>
-    <tableColumn id="5" xr3:uid="{36E458A5-B237-4211-B6BC-E892E9402474}" name="UNIQUE"/>
-    <tableColumn id="6" xr3:uid="{E9893954-4375-43BA-B797-FA70402C092F}" name="NOTNULL"/>
-    <tableColumn id="7" xr3:uid="{48287203-13D1-43FD-84CA-324754C002AB}" name="default"/>
-    <tableColumn id="8" xr3:uid="{C16E2147-E415-4A57-BDE0-310C7DCF316A}" name="FK"/>
+    <tableColumn id="3" xr3:uid="{F6D513A5-2539-43F1-8A60-DB3915EC696A}" name="主キー" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{55412B97-0317-4D65-8B36-D9313A569658}" name="型" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{36E458A5-B237-4211-B6BC-E892E9402474}" name="UNIQUE" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E9893954-4375-43BA-B797-FA70402C092F}" name="NOTNULL" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{48287203-13D1-43FD-84CA-324754C002AB}" name="default" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C16E2147-E415-4A57-BDE0-310C7DCF316A}" name="FK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,61 +1032,63 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -948,16 +1099,16 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -968,151 +1119,151 @@
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="11">
         <v>999</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1123,22 +1274,22 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1149,16 +1300,16 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1169,13 +1320,13 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1186,13 +1337,13 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="b">
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1354,7 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1214,379 +1365,535 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="3" t="b">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="E47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>31</v>
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>30</v>
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F64" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="3" t="b">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na-taniguchi\z\app\stocktrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\z\dev\stocktrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9772F662-A48F-48C9-9CD1-23D997E9FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D0514-8B9C-4106-B5DA-1E80F6031B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -470,17 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bundle_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セルストック状態</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cell_stock_status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,6 +490,25 @@
     <rPh sb="26" eb="28">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルストック状態</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>束上限</t>
+    <rPh sb="0" eb="3">
+      <t>タバジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_qty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,19 +619,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,13 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,29 +646,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -719,6 +701,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -738,19 +738,19 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{81F3108F-FA97-4157-985A-5F6C7A3B70AF}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{D0CE9261-BDF4-4A1D-A013-83031B334A44}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{BDF92E14-C0C1-48CD-9DD3-4496DCB60747}" name="主キー" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D3DEED8E-F2E9-41E3-83FA-B08E7B089F45}" name="型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{99B2EDA6-EDB2-4EC0-9614-3F0DAA547C2E}" name="UNIQUE" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BDF92E14-C0C1-48CD-9DD3-4496DCB60747}" name="主キー" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D3DEED8E-F2E9-41E3-83FA-B08E7B089F45}" name="型" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{99B2EDA6-EDB2-4EC0-9614-3F0DAA547C2E}" name="UNIQUE" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A3:H5" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FF83F9C0-AB2B-4A24-94C7-2E75099C7FCC}" name="物理名"/>
@@ -1032,22 +1032,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="10.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
+    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="10.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1070,25 +1070,25 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1119,13 +1119,13 @@
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1152,22 +1152,22 @@
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1178,20 +1178,20 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -1200,56 +1200,56 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>999</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -1274,22 +1274,22 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1300,16 +1300,16 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1337,13 +1337,13 @@
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="b">
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1392,22 +1392,22 @@
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1418,20 +1418,20 @@
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="E35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -1440,16 +1440,16 @@
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -1458,382 +1458,348 @@
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8">
+        <v>6</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="11" t="b">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H47" s="11" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="C49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>78</v>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G56" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H56" s="9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11" t="s">
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H64" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11" t="s">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1844,16 +1810,16 @@
       <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11" t="s">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1864,36 +1830,54 @@
       <c r="B68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="11" t="b">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\z\dev\stocktrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\app\stocktrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8D0514-8B9C-4106-B5DA-1E80F6031B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +514,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -691,7 +690,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Yu Gothic"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -733,34 +731,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
-  <autoFilter ref="A23:H28" xr:uid="{D1701FE2-2A9D-4E45-A500-3F84DE932181}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
+  <autoFilter ref="A23:H28"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{81F3108F-FA97-4157-985A-5F6C7A3B70AF}" name="物理名"/>
-    <tableColumn id="2" xr3:uid="{D0CE9261-BDF4-4A1D-A013-83031B334A44}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{BDF92E14-C0C1-48CD-9DD3-4496DCB60747}" name="主キー" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{D3DEED8E-F2E9-41E3-83FA-B08E7B089F45}" name="型" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{99B2EDA6-EDB2-4EC0-9614-3F0DAA547C2E}" name="UNIQUE" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{BCAE9D6A-3141-4EEA-A1F6-6BCE6FCB3E09}" name="NOTNULL" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{2F701421-FFD3-42F4-9CB6-7D591576684C}" name="default" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3703817D-E39D-401F-A691-D2F358A4F5E7}" name="FK" dataDxfId="8"/>
+    <tableColumn id="1" name="物理名"/>
+    <tableColumn id="2" name="論理名"/>
+    <tableColumn id="3" name="主キー" dataDxfId="13"/>
+    <tableColumn id="4" name="型" dataDxfId="12"/>
+    <tableColumn id="5" name="UNIQUE" dataDxfId="11"/>
+    <tableColumn id="6" name="NOTNULL" dataDxfId="10"/>
+    <tableColumn id="7" name="default" dataDxfId="9"/>
+    <tableColumn id="8" name="FK" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:H5" xr:uid="{8DB945B4-0FBD-4075-AA92-9E9CAD7D3F32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FF83F9C0-AB2B-4A24-94C7-2E75099C7FCC}" name="物理名"/>
-    <tableColumn id="2" xr3:uid="{BC650733-FB8A-40B8-A476-100495E26E68}" name="論理名"/>
-    <tableColumn id="3" xr3:uid="{F6D513A5-2539-43F1-8A60-DB3915EC696A}" name="主キー" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{55412B97-0317-4D65-8B36-D9313A569658}" name="型" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{36E458A5-B237-4211-B6BC-E892E9402474}" name="UNIQUE" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E9893954-4375-43BA-B797-FA70402C092F}" name="NOTNULL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{48287203-13D1-43FD-84CA-324754C002AB}" name="default" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C16E2147-E415-4A57-BDE0-310C7DCF316A}" name="FK" dataDxfId="0"/>
+    <tableColumn id="1" name="物理名"/>
+    <tableColumn id="2" name="論理名"/>
+    <tableColumn id="3" name="主キー" dataDxfId="5"/>
+    <tableColumn id="4" name="型" dataDxfId="4"/>
+    <tableColumn id="5" name="UNIQUE" dataDxfId="3"/>
+    <tableColumn id="6" name="NOTNULL" dataDxfId="2"/>
+    <tableColumn id="7" name="default" dataDxfId="1"/>
+    <tableColumn id="8" name="FK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,25 +1026,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="127" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="10.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.0625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.8125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\app\stocktrack\開発メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8637FD-E622-4A6C-B655-CED7BF827E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -508,13 +509,35 @@
   </si>
   <si>
     <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -731,34 +754,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
-  <autoFilter ref="A23:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
+  <autoFilter ref="A23:H28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="物理名"/>
-    <tableColumn id="2" name="論理名"/>
-    <tableColumn id="3" name="主キー" dataDxfId="13"/>
-    <tableColumn id="4" name="型" dataDxfId="12"/>
-    <tableColumn id="5" name="UNIQUE" dataDxfId="11"/>
-    <tableColumn id="6" name="NOTNULL" dataDxfId="10"/>
-    <tableColumn id="7" name="default" dataDxfId="9"/>
-    <tableColumn id="8" name="FK" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="物理名"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="論理名"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="主キー" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="型" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIQUE" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NOTNULL" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="default" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FK" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル2" displayName="テーブル2" ref="A3:H5" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:H5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="物理名"/>
-    <tableColumn id="2" name="論理名"/>
-    <tableColumn id="3" name="主キー" dataDxfId="5"/>
-    <tableColumn id="4" name="型" dataDxfId="4"/>
-    <tableColumn id="5" name="UNIQUE" dataDxfId="3"/>
-    <tableColumn id="6" name="NOTNULL" dataDxfId="2"/>
-    <tableColumn id="7" name="default" dataDxfId="1"/>
-    <tableColumn id="8" name="FK" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="物理名"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="論理名"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="主キー" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="型" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UNIQUE" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="NOTNULL" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="default" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="FK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1026,25 +1049,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="127" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="127" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.5625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="10.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.0625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1249,6 +1272,42 @@
       </c>
       <c r="H16" s="8"/>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>0</v>
@@ -1470,10 +1529,10 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="8"/>
@@ -1485,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -1505,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="G39" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="8"/>
     </row>

--- a/開発メモ/テーブル定義.xlsx
+++ b/開発メモ/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoya\z\app\StockTrack\開発メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8637FD-E622-4A6C-B655-CED7BF827E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667DFCD-F907-414D-83CC-EA0E6CA5A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-3615" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -530,6 +530,13 @@
     <t>行</t>
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -668,7 +675,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -754,8 +760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A23:H28" totalsRowShown="0">
-  <autoFilter ref="A23:H28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A23:H32" totalsRowShown="0">
+  <autoFilter ref="A23:H32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="物理名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="論理名"/>
@@ -1053,10 +1059,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="127" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1273,10 +1279,10 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="8"/>
@@ -1291,7 +1297,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1389,552 +1395,560 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="5" t="b">
+      <c r="F30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="8" t="b">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="E52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8"/>
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F69" s="8" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
